--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-586224.1327769581</v>
+        <v>-588111.71429336</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>40.06094218040287</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>158.5273308968941</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>33.89392690056353</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>161.0094524652174</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>41.81442484566791</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>34.82584874159637</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>126.8511502120404</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>168.4743637384534</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>281.8869675260127</v>
+        <v>94.79884122594919</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>21.16154086980906</v>
       </c>
       <c r="W10" t="n">
-        <v>237.4290849050895</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>48.01794491264958</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>237.9664329516405</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>78.46129407658272</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>76.94799549862661</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0572134066758</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>18.82095176854872</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>198.0486943988034</v>
       </c>
       <c r="U22" t="n">
-        <v>203.843519215192</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>170.5809693952293</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>224.1935651837705</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>73.21532344290755</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>57.4137870153502</v>
+        <v>7.203899898041408</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3205,7 +3205,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463045</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415119</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1374.814428194113</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C2" t="n">
-        <v>1005.851911253702</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D2" t="n">
-        <v>647.5862126469513</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>261.797960048707</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2537.020473950653</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2318.385806922715</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2318.385806922715</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1987.322919579145</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>1987.322919579145</v>
       </c>
       <c r="X2" t="n">
-        <v>1761.414268258235</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1761.414268258235</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2226.135561358609</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="C4" t="n">
-        <v>2057.199378430702</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D4" t="n">
-        <v>2057.199378430702</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>2057.199378430702</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>2057.199378430702</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>2057.199378430702</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2453.443748690007</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2226.135561358609</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>2226.135561358609</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>2226.135561358609</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>2226.135561358609</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>2226.135561358609</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="Y4" t="n">
-        <v>2226.135561358609</v>
+        <v>338.1849863041093</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1078.595463490097</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C5" t="n">
-        <v>1078.595463490097</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2661.971466026711</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2661.971466026711</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2661.971466026711</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2661.971466026711</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>2309.202810756597</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.195303554219</v>
+        <v>2309.202810756597</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.195303554219</v>
+        <v>1919.063478780785</v>
       </c>
     </row>
     <row r="6">
@@ -4662,7 +4662,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.535689181137</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>182.0754567820215</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>182.0754567820215</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>182.0754567820215</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>182.0754567820215</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>182.0754567820215</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>557.9528592180976</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>557.9528592180976</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>268.535689181137</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>268.535689181137</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.535689181137</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1982.475507338148</v>
+        <v>2370.186508584149</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.475507338148</v>
+        <v>2370.186508584149</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.475507338148</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="Y8" t="n">
-        <v>1982.475507338148</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>488.3016257164451</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>488.3016257164451</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1849863041093</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
         <v>190.2718927217162</v>
@@ -4957,10 +4957,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="W10" t="n">
-        <v>488.3016257164451</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X10" t="n">
-        <v>488.3016257164451</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>488.3016257164451</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5127,7 +5127,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.6385818722728</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C13" t="n">
-        <v>705.7023989443659</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D13" t="n">
-        <v>555.5857595320301</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>407.6726659496371</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>407.6726659496371</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>1258.546136263315</v>
       </c>
       <c r="W13" t="n">
-        <v>874.6385818722728</v>
+        <v>969.1289662263548</v>
       </c>
       <c r="X13" t="n">
-        <v>874.6385818722728</v>
+        <v>969.1289662263548</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.6385818722728</v>
+        <v>748.3363870828247</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5273,52 +5273,52 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>498.9056400965593</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>745.6707680030233</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>356.6647764207315</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C16" t="n">
-        <v>356.6647764207315</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6647764207315</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273993</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>844.0280401273993</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>616.038489229382</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>538.3132412509713</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>581.2185435662826</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>412.2823606383757</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383757</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383757</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>865.0520438420759</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W19" t="n">
-        <v>865.0520438420759</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X19" t="n">
-        <v>637.0624929440586</v>
+        <v>781.8780707889957</v>
       </c>
       <c r="Y19" t="n">
-        <v>416.2699138005285</v>
+        <v>762.8670083965224</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514085</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,7 +5829,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
         <v>674.428562457161</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.867084296485</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6151,19 +6151,19 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.78763177146</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V25" t="n">
-        <v>983.329485121187</v>
+        <v>782.7991340754432</v>
       </c>
       <c r="W25" t="n">
-        <v>693.9123150842264</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X25" t="n">
-        <v>465.9227641862091</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,34 +6218,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>171.1719636248389</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>171.1719636248389</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>171.1719636248389</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>171.1719636248389</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6385,19 +6385,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>391.964542768369</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>171.1719636248389</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163786</v>
+        <v>494.8466681110208</v>
       </c>
       <c r="C31" t="n">
-        <v>546.5704195584491</v>
+        <v>487.5700015473427</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274842</v>
+        <v>487.5700015473427</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264619</v>
+        <v>395.4177732463203</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>304.2886910297805</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323873</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1390.574594818802</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1191.650971894286</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981894</v>
+        <v>957.9946671386958</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652475</v>
+        <v>785.7659815220492</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652475</v>
+        <v>620.7342676598898</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083196</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982964</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,16 +6950,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
         <v>221.529509210313</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,13 +7354,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7412,16 +7412,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7555,7 +7555,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,13 +7582,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254959</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>87.16935584025379</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>118.475623550728</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>14.17121037218748</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>88.78552702204512</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,19 +23707,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.6366578534682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.08042991715223</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>199.7637015835461</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>23.49886665958581</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338534</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,13 +24415,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>50.96659166315993</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>27.94407814005746</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>72.2057245800237</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>54.62977745472049</v>
+        <v>104.8396645720294</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571498</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>8.881784197001252e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.592326932761353e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1174922.540122537</v>
+        <v>1174922.540122536</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1174922.540122537</v>
+        <v>1174922.540122536</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1174922.540122537</v>
+        <v>1174922.540122536</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1174922.540122536</v>
+        <v>1174922.540122537</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1174922.540122536</v>
+        <v>1174922.540122537</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1174922.540122536</v>
+        <v>1174922.540122537</v>
       </c>
     </row>
     <row r="11">
@@ -26320,19 +26320,19 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="F2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="G2" t="n">
         <v>215065.9828557399</v>
       </c>
       <c r="H2" t="n">
+        <v>215065.9828557399</v>
+      </c>
+      <c r="I2" t="n">
         <v>215065.9828557398</v>
-      </c>
-      <c r="I2" t="n">
-        <v>215065.9828557399</v>
       </c>
       <c r="J2" t="n">
         <v>215065.9828557399</v>
@@ -26350,7 +26350,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.6053028456</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284573</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819116</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26473,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-612673.3383518003</v>
+        <v>-612673.3383518002</v>
       </c>
       <c r="C6" t="n">
         <v>-22705.45913725588</v>
       </c>
       <c r="D6" t="n">
-        <v>-22705.45913725589</v>
+        <v>-22705.45913725588</v>
       </c>
       <c r="E6" t="n">
-        <v>-424255.9871567435</v>
+        <v>-424353.4462827157</v>
       </c>
       <c r="F6" t="n">
-        <v>100904.0493201525</v>
+        <v>100806.5901941804</v>
       </c>
       <c r="G6" t="n">
-        <v>100904.0493201525</v>
+        <v>100806.5901941802</v>
       </c>
       <c r="H6" t="n">
-        <v>100904.0493201523</v>
+        <v>100806.5901941804</v>
       </c>
       <c r="I6" t="n">
-        <v>100904.0493201527</v>
+        <v>100806.5901941805</v>
       </c>
       <c r="J6" t="n">
-        <v>-75519.16987244041</v>
+        <v>-75616.62899841258</v>
       </c>
       <c r="K6" t="n">
-        <v>42622.13160576281</v>
+        <v>42603.6378678286</v>
       </c>
       <c r="L6" t="n">
-        <v>73135.07926359473</v>
+        <v>73135.07926359463</v>
       </c>
       <c r="M6" t="n">
-        <v>-51323.02916937554</v>
+        <v>-51323.02916937567</v>
       </c>
       <c r="N6" t="n">
         <v>83477.98606446151</v>
       </c>
       <c r="O6" t="n">
-        <v>83477.98606446145</v>
+        <v>83477.98606446151</v>
       </c>
       <c r="P6" t="n">
-        <v>39315.38076161574</v>
+        <v>39315.38076161586</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
@@ -26719,10 +26719,10 @@
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108349</v>
+        <v>12.92863350108364</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>366.8151035613085</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>15.88838191207739</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>122.2769619412316</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>64.70020292381977</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>312.868616775015</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>139.5898640673752</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>8.114471580297788</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>117.8075105035243</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>45.86529094412225</v>
+        <v>232.9534172441857</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28062,16 +28062,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>230.9761024540189</v>
       </c>
       <c r="W10" t="n">
-        <v>49.09391343150153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="32">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32482,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32503,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32631,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32643,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32655,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>237.744794428193</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36130,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
@@ -36209,19 +36209,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412253</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043176</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37160,16 +37160,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
